--- a/UNM_plate_maps_working.xlsx
+++ b/UNM_plate_maps_working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Dropbox/Mac/Desktop/files/martinson_group/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/martinson_ERNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C000AE1-CE12-264F-9540-BC30A95E9FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606BC719-B2C1-844C-98B9-6861DDB01AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{ACD3661C-6D58-AF4D-867C-B78AD73C6547}"/>
+    <workbookView xWindow="11160" yWindow="3780" windowWidth="27240" windowHeight="16440" xr2:uid="{ACD3661C-6D58-AF4D-867C-B78AD73C6547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1044,27 +1044,32 @@
       <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1158,10 +1163,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1169,6 +1170,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44E30CB-8E9E-644A-BA11-92D24A4F9D5E}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -2233,23 +2238,23 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
@@ -2621,23 +2626,23 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
@@ -2687,13 +2692,13 @@
       <c r="B35" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>311</v>
       </c>
       <c r="F35" s="2"/>
@@ -2712,13 +2717,13 @@
       <c r="B36" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>314</v>
       </c>
       <c r="F36" s="2"/>
@@ -2737,13 +2742,13 @@
       <c r="B37" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>317</v>
       </c>
       <c r="F37" s="2"/>
@@ -2762,13 +2767,13 @@
       <c r="B38" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>320</v>
       </c>
       <c r="F38" s="2"/>
@@ -2787,13 +2792,13 @@
       <c r="B39" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>323</v>
       </c>
       <c r="F39" s="2"/>
@@ -2812,13 +2817,13 @@
       <c r="B40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2833,13 +2838,13 @@
         <v>78</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2854,13 +2859,13 @@
         <v>91</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
